--- a/ARCH/ARCH1.1.3/ARCH1.1.3_ChangesLOG.xlsx
+++ b/ARCH/ARCH1.1.3/ARCH1.1.3_ChangesLOG.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sduquevallejo\Documents\GitHub\DataPlatform\ARCH\ARCH1.1.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68666370-51FB-4070-A435-F7A5FA1F6BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC349548-FDE7-46FA-B2D1-E63144E0052A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Added Variables" sheetId="1" r:id="rId1"/>
     <sheet name="Deleted Variables" sheetId="2" r:id="rId2"/>
     <sheet name="Content Changes" sheetId="3" r:id="rId3"/>
+    <sheet name="Variable Replacements" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="285">
   <si>
     <t>Variable (New)</t>
   </si>
@@ -251,6 +252,21 @@
     <t>test_vload</t>
   </si>
   <si>
+    <t>diagn_denguetyp</t>
+  </si>
+  <si>
+    <t>diagn_dengueclass</t>
+  </si>
+  <si>
+    <t>diagn_dengueclass_dss</t>
+  </si>
+  <si>
+    <t>diagn_dengueclass_sevbl</t>
+  </si>
+  <si>
+    <t>diagn_dengueclass_sevorgimp</t>
+  </si>
+  <si>
     <t>presentation</t>
   </si>
   <si>
@@ -260,6 +276,9 @@
     <t>pathogen_testing</t>
   </si>
   <si>
+    <t>outcome</t>
+  </si>
+  <si>
     <t>SIGNS ON ADMISSION: Indicate if experienced at any time from onset of this illness to the day of presentation.</t>
   </si>
   <si>
@@ -272,6 +291,9 @@
     <t>PATHOGEN TESTING: Results of all types of sample and pathogen testing</t>
   </si>
   <si>
+    <t>DIAGNOSIS</t>
+  </si>
+  <si>
     <t>Systemic / general signs</t>
   </si>
   <si>
@@ -470,6 +492,21 @@
     <t>Viral load (copies/mL)</t>
   </si>
   <si>
+    <t>If any diagnosis is Dengue: type</t>
+  </si>
+  <si>
+    <t>What was the final classification of dengue?</t>
+  </si>
+  <si>
+    <t>Dengue shock syndrome</t>
+  </si>
+  <si>
+    <t>Severe bleeding</t>
+  </si>
+  <si>
+    <t>Severe organ impairment</t>
+  </si>
+  <si>
     <t>1, Yes | 0, No | 99, Unknown</t>
   </si>
   <si>
@@ -497,6 +534,9 @@
     <t>1, DENV1 | 2, DENV2 | 3, DENV3 | 4, DENV4</t>
   </si>
   <si>
+    <t>1, Uncomplicated dengue | 2, Dengue with warning signs | 3, Severe dengue</t>
+  </si>
+  <si>
     <t>Variable (Old)</t>
   </si>
   <si>
@@ -524,12 +564,123 @@
     <t>test_reasno</t>
   </si>
   <si>
+    <t>diagn_influenza</t>
+  </si>
+  <si>
+    <t>diagn_influenza_type</t>
+  </si>
+  <si>
+    <t>diagn_influenza_oth</t>
+  </si>
+  <si>
+    <t>diagn_rsv</t>
+  </si>
+  <si>
+    <t>diagn_covid</t>
+  </si>
+  <si>
+    <t>diagn_adenovirus</t>
+  </si>
+  <si>
+    <t>diagn_mpox</t>
+  </si>
+  <si>
+    <t>diagn_chickenpox</t>
+  </si>
+  <si>
+    <t>diagn_hsv</t>
+  </si>
+  <si>
+    <t>diagn_hiv</t>
+  </si>
+  <si>
+    <t>diagn_hivvl</t>
+  </si>
+  <si>
+    <t>diagn_hepatitis</t>
+  </si>
+  <si>
+    <t>diagn_dengue</t>
+  </si>
+  <si>
+    <t>diagn_dengue_nsi</t>
+  </si>
+  <si>
+    <t>diagn_dengue_ns1</t>
+  </si>
+  <si>
+    <t>diagn_dengue_igm</t>
+  </si>
+  <si>
+    <t>diagn_dengue_igg</t>
+  </si>
+  <si>
+    <t>diagn_dengue_elisa</t>
+  </si>
+  <si>
+    <t>diagn_dengue_fsdate</t>
+  </si>
+  <si>
+    <t>diagn_dengue_fsigm</t>
+  </si>
+  <si>
+    <t>diagn_dengue_fsigg</t>
+  </si>
+  <si>
+    <t>diagn_dengue_ns1sec</t>
+  </si>
+  <si>
+    <t>diagn_dengue_ssdate</t>
+  </si>
+  <si>
+    <t>diagn_dengue_ssigm</t>
+  </si>
+  <si>
+    <t>diagn_dengue_ssigg</t>
+  </si>
+  <si>
+    <t>diagn_dengue_pcr</t>
+  </si>
+  <si>
+    <t>diagn_dengue_pcrtyp</t>
+  </si>
+  <si>
+    <t>diagn_clinpneumonia</t>
+  </si>
+  <si>
+    <t>outco_deng</t>
+  </si>
+  <si>
+    <t>outco_deng_main</t>
+  </si>
+  <si>
+    <t>outco_deng_type</t>
+  </si>
+  <si>
+    <t>outco_deng_dss</t>
+  </si>
+  <si>
+    <t>outco_deng_sevbl</t>
+  </si>
+  <si>
+    <t>outco_deng_sevorgimp</t>
+  </si>
+  <si>
+    <t>outco_secondiag</t>
+  </si>
+  <si>
+    <t>outco_secondiag_oth</t>
+  </si>
+  <si>
     <t>SYMPTOMS ON ADMISSION: Indicate if experienced at any time from onset of this illness to the day of presentation.</t>
   </si>
   <si>
     <t>SYMPTOMS: Indicate if experienced between 00:00 to 24:00 on day of assessment.</t>
   </si>
   <si>
+    <t>OUTCOME</t>
+  </si>
+  <si>
     <t>Specify other bleeding / haemorrhage site(s)</t>
   </si>
   <si>
@@ -539,9 +690,117 @@
     <t>If no: Specify reason(s)</t>
   </si>
   <si>
+    <t>Influenza</t>
+  </si>
+  <si>
+    <t>Influenza type</t>
+  </si>
+  <si>
+    <t>Specify other influenza type</t>
+  </si>
+  <si>
+    <t>Respiratory Syncytial Virus (RSV)</t>
+  </si>
+  <si>
+    <t>SARS-CoV-2 (COVID-19)</t>
+  </si>
+  <si>
+    <t>Adenovirus</t>
+  </si>
+  <si>
+    <t>Mpox</t>
+  </si>
+  <si>
+    <t>Chickenpox / varicella</t>
+  </si>
+  <si>
+    <t>Herpes simplex virus</t>
+  </si>
+  <si>
+    <t>HIV</t>
+  </si>
+  <si>
+    <t>If lab confirmed: Most recent HIV viral load (copies/mL)</t>
+  </si>
+  <si>
+    <t>Hepatitis viruses</t>
+  </si>
+  <si>
+    <t>Dengue virus infection</t>
+  </si>
+  <si>
+    <t>NS1 RDT</t>
+  </si>
+  <si>
+    <t>NS1/IgM/IgG combination test (RDT) - NS1 first sample</t>
+  </si>
+  <si>
+    <t>NS1/IgM/IgG combination test (RDT) - IgM first sample</t>
+  </si>
+  <si>
+    <t>NS1/IgM/IgG combination test (RDT) - IgG first sample</t>
+  </si>
+  <si>
+    <t>NS1 ELISA first sample</t>
+  </si>
+  <si>
+    <t>IgM/IgG ELISA first sample date</t>
+  </si>
+  <si>
+    <t>IgM ELISA first sample</t>
+  </si>
+  <si>
+    <t>IgG ELISA first sample</t>
+  </si>
+  <si>
+    <t>NS1 ELISA second sample</t>
+  </si>
+  <si>
+    <t>IgM/IgG ELISA second sample date</t>
+  </si>
+  <si>
+    <t>IgM ELISA second sample</t>
+  </si>
+  <si>
+    <t>IgG ELISA second sample</t>
+  </si>
+  <si>
+    <t>Dengue PCR</t>
+  </si>
+  <si>
+    <t>Clinical pneumonia diagnosed?</t>
+  </si>
+  <si>
+    <t>Was the patient's main diagnosis dengue?</t>
+  </si>
+  <si>
+    <t>If no: What was the main diagnosis?</t>
+  </si>
+  <si>
+    <t>If yes: What was the final classification of dengue?</t>
+  </si>
+  <si>
+    <t>Was there any secondary diagnosis?</t>
+  </si>
+  <si>
+    <t>Specify secondary diagnosis</t>
+  </si>
+  <si>
     <t>1, Yes | 0, No</t>
   </si>
   <si>
+    <t>1, Lab confirmed | 0, Lab negative | 2, Not tested and no clinical diagnosis | 3, Not tested and clinically diagnosed | 99, Unknown</t>
+  </si>
+  <si>
+    <t>1, A-not typed | 2, A/H3N2 | 3, A/H1N1pdm09 | 4, A/H7N9 | 5, A/H5N1 | 6, B | 88, Other</t>
+  </si>
+  <si>
+    <t>1, Lab confirmed | 0, Lab negative | 2, Not tested | 99, Unknown</t>
+  </si>
+  <si>
+    <t>1, Positive | 0, Negative | 99, Unknown</t>
+  </si>
+  <si>
     <t>Variable</t>
   </si>
   <si>
@@ -557,55 +816,73 @@
     <t>New Answer Options</t>
   </si>
   <si>
+    <t>demog_gender</t>
+  </si>
+  <si>
+    <t>sympt_haemorrhag_site</t>
+  </si>
+  <si>
     <t>demog_calcage</t>
   </si>
   <si>
+    <t>test_labtestmethod</t>
+  </si>
+  <si>
     <t>adsym_haemorrhag_site</t>
   </si>
   <si>
-    <t>demog_gender</t>
-  </si>
-  <si>
-    <t>test_labtestmethod</t>
-  </si>
-  <si>
-    <t>sympt_haemorrhag_site</t>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Specify bleeding / haemorrhage site(s)</t>
   </si>
   <si>
     <t>Calculated Age</t>
   </si>
   <si>
-    <t>Specify bleeding / haemorrhage site(s)</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
     <t>Lab test method</t>
   </si>
   <si>
     <t>Specify bleeding site(s)</t>
   </si>
   <si>
+    <t>1, Man | 2, Woman | 3, Non-binary | 99, Unknown | 88, Other</t>
+  </si>
+  <si>
+    <t>1, Skin | 7, Petechiae | 2, Nose | 3, Gums | 4, GI tract | 5, Urinary tract | 6, Vagina | 99, Unknown | 88, Other(s)</t>
+  </si>
+  <si>
     <t>datediff([demog_birthdate], [pres_date], "y")</t>
   </si>
   <si>
-    <t>1, Skin | 7, Petechiae | 2, Nose | 3, Gums | 4, GI tract | 5, Urinary tract | 6, Vagina | 99, Unknown | 88, Other(s)</t>
-  </si>
-  <si>
-    <t>1, Man | 2, Woman | 3, Non-binary | 99, Unknown | 88, Other</t>
-  </si>
-  <si>
     <t>1, PCR | 2, IgG | 3, Culture | 4, IgM | 6, RDT | 5, Antigen detection | 99, Unknown</t>
   </si>
   <si>
-    <t>if([demog_birthknow] = '1',  datediff([demog_birthdate], [dates_admdate], "y"),  if([demog_age_units] = '1', [demog_age], if([demog_age_units] = '2', round([demog_age]/12, 2), if([demog_age_units] = '3', round([demog_age]/365.25, 2), '') ) ))</t>
-  </si>
-  <si>
     <t>1, Male | 2, Female | 3, Non-binary | 99, Unknown | 88, Other</t>
   </si>
   <si>
+    <t>if([demog_birthknow] = '1',  datediff([demog_birthdate], [pres_date], "y"),  if([demog_age_units] = '1', [demog_age], if([demog_age_units] = '2', round([demog_age]/12, 2), if([demog_age_units] = '3', round([demog_age]/365.25, 2), '') ) ))</t>
+  </si>
+  <si>
     <t>1, PCR | 3, Culture | 6, RDT | 7, ELISA | 99, Unknown</t>
+  </si>
+  <si>
+    <t>Old Variable (1.1.2)</t>
+  </si>
+  <si>
+    <t>New Variable (1.1.3)</t>
+  </si>
+  <si>
+    <t>diagn_additional</t>
+  </si>
+  <si>
+    <t>diagn_additional2</t>
+  </si>
+  <si>
+    <t>diagn_additional_list</t>
+  </si>
+  <si>
+    <t>diagn_additional2_list</t>
   </si>
 </sst>
 </file>
@@ -1007,18 +1284,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
-    </sheetView>
+    <sheetView topLeftCell="A55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" customWidth="1"/>
-    <col min="2" max="2" width="55.140625" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" customWidth="1"/>
-    <col min="4" max="4" width="39.140625" customWidth="1"/>
+    <col min="1" max="1" width="58.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1043,13 +1315,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1057,16 +1329,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E3" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1074,16 +1346,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E4" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1091,16 +1363,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E5" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1108,16 +1380,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E6" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1125,16 +1397,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E7" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1142,13 +1414,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1156,16 +1428,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D9" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E9" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1173,16 +1445,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D10" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E10" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1190,13 +1462,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D11" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1204,16 +1476,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E12" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1221,16 +1493,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D13" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1238,16 +1510,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E14" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1255,16 +1527,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D15" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E15" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1272,16 +1544,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D16" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E16" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1289,16 +1561,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D17" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E17" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1306,16 +1578,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D18" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E18" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1323,13 +1595,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D19" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1337,13 +1609,13 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D20" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1351,16 +1623,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D21" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E21" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1368,16 +1640,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D22" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E22" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1385,16 +1657,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D23" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E23" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1402,16 +1674,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D24" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E24" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1419,16 +1691,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D25" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E25" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1436,16 +1708,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D26" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E26" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1453,16 +1725,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D27" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E27" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1470,16 +1742,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D28" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E28" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1487,13 +1759,13 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D29" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1501,16 +1773,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D30" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E30" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1518,16 +1790,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D31" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E31" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1535,13 +1807,13 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D32" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1549,16 +1821,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D33" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E33" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1566,16 +1838,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D34" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E34" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1583,16 +1855,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D35" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E35" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1600,16 +1872,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C36" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D36" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E36" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1617,16 +1889,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C37" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D37" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E37" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1634,16 +1906,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C38" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D38" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E38" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1651,16 +1923,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C39" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D39" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E39" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1668,13 +1940,13 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D40" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1682,16 +1954,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C41" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D41" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E41" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1699,13 +1971,13 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C42" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D42" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1713,16 +1985,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C43" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D43" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E43" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1730,16 +2002,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C44" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D44" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E44" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1747,16 +2019,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C45" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D45" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E45" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1764,16 +2036,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C46" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D46" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E46" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1781,16 +2053,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C47" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D47" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E47" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1798,16 +2070,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C48" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D48" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E48" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1815,16 +2087,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C49" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D49" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E49" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1832,16 +2104,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C50" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D50" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E50" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1849,13 +2121,13 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C51" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D51" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1863,13 +2135,13 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C52" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D52" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1877,16 +2149,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C53" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D53" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E53" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1894,16 +2166,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C54" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D54" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="E54" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1911,16 +2183,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C55" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D55" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E55" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -1928,16 +2200,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C56" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D56" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E56" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1945,16 +2217,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C57" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D57" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E57" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1962,16 +2234,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C58" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D58" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E58" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -1979,13 +2251,13 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C59" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D59" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -1993,13 +2265,13 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C60" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D60" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2007,16 +2279,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C61" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D61" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E61" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2024,16 +2296,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C62" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D62" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E62" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2041,16 +2313,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C63" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D63" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E63" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2058,16 +2330,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C64" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D64" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E64" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2075,16 +2347,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C65" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D65" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="E65" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2092,13 +2364,13 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C66" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D66" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2106,16 +2378,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C67" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D67" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E67" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2123,16 +2395,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C68" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D68" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E68" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2140,16 +2412,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C69" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D69" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E69" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2157,13 +2429,98 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
+        <v>81</v>
+      </c>
+      <c r="C70" t="s">
+        <v>86</v>
+      </c>
+      <c r="D70" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71" t="s">
+        <v>87</v>
+      </c>
+      <c r="D71" t="s">
+        <v>154</v>
+      </c>
+      <c r="E71" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" t="s">
+        <v>87</v>
+      </c>
+      <c r="D72" t="s">
+        <v>155</v>
+      </c>
+      <c r="E72" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>76</v>
       </c>
-      <c r="C70" t="s">
-        <v>80</v>
-      </c>
-      <c r="D70" t="s">
-        <v>146</v>
+      <c r="B73" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73" t="s">
+        <v>87</v>
+      </c>
+      <c r="D73" t="s">
+        <v>156</v>
+      </c>
+      <c r="E73" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" t="s">
+        <v>82</v>
+      </c>
+      <c r="C74" t="s">
+        <v>87</v>
+      </c>
+      <c r="D74" t="s">
+        <v>157</v>
+      </c>
+      <c r="E74" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75" t="s">
+        <v>82</v>
+      </c>
+      <c r="C75" t="s">
+        <v>87</v>
+      </c>
+      <c r="D75" t="s">
+        <v>158</v>
+      </c>
+      <c r="E75" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2173,91 +2530,685 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34" customWidth="1"/>
+    <col min="1" max="1" width="69.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>214</v>
       </c>
       <c r="D2" t="s">
-        <v>167</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>166</v>
+        <v>215</v>
       </c>
       <c r="D3" t="s">
-        <v>167</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>168</v>
+        <v>218</v>
       </c>
       <c r="E4" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
-        <v>169</v>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" t="s">
+        <v>223</v>
+      </c>
+      <c r="E9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" t="s">
+        <v>225</v>
+      </c>
+      <c r="E11" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>184</v>
+      </c>
+      <c r="B12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" t="s">
+        <v>226</v>
+      </c>
+      <c r="E12" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>185</v>
+      </c>
+      <c r="B13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" t="s">
+        <v>227</v>
+      </c>
+      <c r="E13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>186</v>
+      </c>
+      <c r="B14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" t="s">
+        <v>228</v>
+      </c>
+      <c r="E14" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>187</v>
+      </c>
+      <c r="B15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" t="s">
+        <v>229</v>
+      </c>
+      <c r="E15" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>188</v>
+      </c>
+      <c r="B16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>189</v>
+      </c>
+      <c r="B17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" t="s">
+        <v>231</v>
+      </c>
+      <c r="E17" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>190</v>
+      </c>
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" t="s">
+        <v>232</v>
+      </c>
+      <c r="E18" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>191</v>
+      </c>
+      <c r="B19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" t="s">
+        <v>233</v>
+      </c>
+      <c r="E19" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>192</v>
+      </c>
+      <c r="B20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" t="s">
+        <v>234</v>
+      </c>
+      <c r="E20" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>193</v>
+      </c>
+      <c r="B21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" t="s">
+        <v>235</v>
+      </c>
+      <c r="E21" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" t="s">
+        <v>236</v>
+      </c>
+      <c r="E22" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>195</v>
+      </c>
+      <c r="B23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" t="s">
+        <v>237</v>
+      </c>
+      <c r="E23" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>196</v>
+      </c>
+      <c r="B24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>197</v>
+      </c>
+      <c r="B25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" t="s">
+        <v>239</v>
+      </c>
+      <c r="E25" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>198</v>
+      </c>
+      <c r="B26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" t="s">
+        <v>240</v>
+      </c>
+      <c r="E26" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>199</v>
+      </c>
+      <c r="B27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" t="s">
+        <v>241</v>
+      </c>
+      <c r="E27" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>200</v>
+      </c>
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>201</v>
+      </c>
+      <c r="B29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" t="s">
+        <v>243</v>
+      </c>
+      <c r="E29" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>202</v>
+      </c>
+      <c r="B30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" t="s">
+        <v>244</v>
+      </c>
+      <c r="E30" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>203</v>
+      </c>
+      <c r="B31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" t="s">
+        <v>245</v>
+      </c>
+      <c r="E31" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>204</v>
+      </c>
+      <c r="B32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" t="s">
+        <v>152</v>
+      </c>
+      <c r="E32" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>205</v>
+      </c>
+      <c r="B33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" t="s">
+        <v>246</v>
+      </c>
+      <c r="E33" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>206</v>
+      </c>
+      <c r="B34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" t="s">
+        <v>216</v>
+      </c>
+      <c r="D34" t="s">
+        <v>247</v>
+      </c>
+      <c r="E34" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>207</v>
+      </c>
+      <c r="B35" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" t="s">
+        <v>216</v>
+      </c>
+      <c r="D35" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>208</v>
+      </c>
+      <c r="B36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" t="s">
+        <v>216</v>
+      </c>
+      <c r="D36" t="s">
+        <v>249</v>
+      </c>
+      <c r="E36" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>209</v>
+      </c>
+      <c r="B37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" t="s">
+        <v>216</v>
+      </c>
+      <c r="D37" t="s">
+        <v>156</v>
+      </c>
+      <c r="E37" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>210</v>
+      </c>
+      <c r="B38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" t="s">
+        <v>216</v>
+      </c>
+      <c r="D38" t="s">
+        <v>157</v>
+      </c>
+      <c r="E38" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>211</v>
+      </c>
+      <c r="B39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" t="s">
+        <v>216</v>
+      </c>
+      <c r="D39" t="s">
+        <v>158</v>
+      </c>
+      <c r="E39" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>212</v>
+      </c>
+      <c r="B40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" t="s">
+        <v>216</v>
+      </c>
+      <c r="D40" t="s">
+        <v>250</v>
+      </c>
+      <c r="E40" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>213</v>
+      </c>
+      <c r="B41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" t="s">
+        <v>216</v>
+      </c>
+      <c r="D41" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -2269,109 +3220,149 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+    <col min="1" max="1" width="69.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>171</v>
+        <v>279</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>281</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>177</v>
+        <v>282</v>
       </c>
       <c r="B3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>178</v>
-      </c>
-      <c r="B4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D4" t="s">
-        <v>188</v>
-      </c>
-      <c r="E4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>179</v>
-      </c>
-      <c r="B5" t="s">
-        <v>184</v>
-      </c>
-      <c r="C5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D5" t="s">
-        <v>189</v>
-      </c>
-      <c r="E5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>180</v>
-      </c>
-      <c r="B6" t="s">
-        <v>182</v>
-      </c>
-      <c r="C6" t="s">
-        <v>185</v>
-      </c>
-      <c r="D6" t="s">
-        <v>187</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/ARCH/ARCH1.1.3/ARCH1.1.3_ChangesLOG.xlsx
+++ b/ARCH/ARCH1.1.3/ARCH1.1.3_ChangesLOG.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sduquevallejo\Documents\GitHub\DataPlatform\ARCH\ARCH1.1.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC349548-FDE7-46FA-B2D1-E63144E0052A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68666370-51FB-4070-A435-F7A5FA1F6BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Added Variables" sheetId="1" r:id="rId1"/>
     <sheet name="Deleted Variables" sheetId="2" r:id="rId2"/>
     <sheet name="Content Changes" sheetId="3" r:id="rId3"/>
-    <sheet name="Variable Replacements" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="193">
   <si>
     <t>Variable (New)</t>
   </si>
@@ -252,21 +251,6 @@
     <t>test_vload</t>
   </si>
   <si>
-    <t>diagn_denguetyp</t>
-  </si>
-  <si>
-    <t>diagn_dengueclass</t>
-  </si>
-  <si>
-    <t>diagn_dengueclass_dss</t>
-  </si>
-  <si>
-    <t>diagn_dengueclass_sevbl</t>
-  </si>
-  <si>
-    <t>diagn_dengueclass_sevorgimp</t>
-  </si>
-  <si>
     <t>presentation</t>
   </si>
   <si>
@@ -276,9 +260,6 @@
     <t>pathogen_testing</t>
   </si>
   <si>
-    <t>outcome</t>
-  </si>
-  <si>
     <t>SIGNS ON ADMISSION: Indicate if experienced at any time from onset of this illness to the day of presentation.</t>
   </si>
   <si>
@@ -291,9 +272,6 @@
     <t>PATHOGEN TESTING: Results of all types of sample and pathogen testing</t>
   </si>
   <si>
-    <t>DIAGNOSIS</t>
-  </si>
-  <si>
     <t>Systemic / general signs</t>
   </si>
   <si>
@@ -492,21 +470,6 @@
     <t>Viral load (copies/mL)</t>
   </si>
   <si>
-    <t>If any diagnosis is Dengue: type</t>
-  </si>
-  <si>
-    <t>What was the final classification of dengue?</t>
-  </si>
-  <si>
-    <t>Dengue shock syndrome</t>
-  </si>
-  <si>
-    <t>Severe bleeding</t>
-  </si>
-  <si>
-    <t>Severe organ impairment</t>
-  </si>
-  <si>
     <t>1, Yes | 0, No | 99, Unknown</t>
   </si>
   <si>
@@ -534,9 +497,6 @@
     <t>1, DENV1 | 2, DENV2 | 3, DENV3 | 4, DENV4</t>
   </si>
   <si>
-    <t>1, Uncomplicated dengue | 2, Dengue with warning signs | 3, Severe dengue</t>
-  </si>
-  <si>
     <t>Variable (Old)</t>
   </si>
   <si>
@@ -564,123 +524,12 @@
     <t>test_reasno</t>
   </si>
   <si>
-    <t>diagn_influenza</t>
-  </si>
-  <si>
-    <t>diagn_influenza_type</t>
-  </si>
-  <si>
-    <t>diagn_influenza_oth</t>
-  </si>
-  <si>
-    <t>diagn_rsv</t>
-  </si>
-  <si>
-    <t>diagn_covid</t>
-  </si>
-  <si>
-    <t>diagn_adenovirus</t>
-  </si>
-  <si>
-    <t>diagn_mpox</t>
-  </si>
-  <si>
-    <t>diagn_chickenpox</t>
-  </si>
-  <si>
-    <t>diagn_hsv</t>
-  </si>
-  <si>
-    <t>diagn_hiv</t>
-  </si>
-  <si>
-    <t>diagn_hivvl</t>
-  </si>
-  <si>
-    <t>diagn_hepatitis</t>
-  </si>
-  <si>
-    <t>diagn_dengue</t>
-  </si>
-  <si>
-    <t>diagn_dengue_nsi</t>
-  </si>
-  <si>
-    <t>diagn_dengue_ns1</t>
-  </si>
-  <si>
-    <t>diagn_dengue_igm</t>
-  </si>
-  <si>
-    <t>diagn_dengue_igg</t>
-  </si>
-  <si>
-    <t>diagn_dengue_elisa</t>
-  </si>
-  <si>
-    <t>diagn_dengue_fsdate</t>
-  </si>
-  <si>
-    <t>diagn_dengue_fsigm</t>
-  </si>
-  <si>
-    <t>diagn_dengue_fsigg</t>
-  </si>
-  <si>
-    <t>diagn_dengue_ns1sec</t>
-  </si>
-  <si>
-    <t>diagn_dengue_ssdate</t>
-  </si>
-  <si>
-    <t>diagn_dengue_ssigm</t>
-  </si>
-  <si>
-    <t>diagn_dengue_ssigg</t>
-  </si>
-  <si>
-    <t>diagn_dengue_pcr</t>
-  </si>
-  <si>
-    <t>diagn_dengue_pcrtyp</t>
-  </si>
-  <si>
-    <t>diagn_clinpneumonia</t>
-  </si>
-  <si>
-    <t>outco_deng</t>
-  </si>
-  <si>
-    <t>outco_deng_main</t>
-  </si>
-  <si>
-    <t>outco_deng_type</t>
-  </si>
-  <si>
-    <t>outco_deng_dss</t>
-  </si>
-  <si>
-    <t>outco_deng_sevbl</t>
-  </si>
-  <si>
-    <t>outco_deng_sevorgimp</t>
-  </si>
-  <si>
-    <t>outco_secondiag</t>
-  </si>
-  <si>
-    <t>outco_secondiag_oth</t>
-  </si>
-  <si>
     <t>SYMPTOMS ON ADMISSION: Indicate if experienced at any time from onset of this illness to the day of presentation.</t>
   </si>
   <si>
     <t>SYMPTOMS: Indicate if experienced between 00:00 to 24:00 on day of assessment.</t>
   </si>
   <si>
-    <t>OUTCOME</t>
-  </si>
-  <si>
     <t>Specify other bleeding / haemorrhage site(s)</t>
   </si>
   <si>
@@ -690,117 +539,9 @@
     <t>If no: Specify reason(s)</t>
   </si>
   <si>
-    <t>Influenza</t>
-  </si>
-  <si>
-    <t>Influenza type</t>
-  </si>
-  <si>
-    <t>Specify other influenza type</t>
-  </si>
-  <si>
-    <t>Respiratory Syncytial Virus (RSV)</t>
-  </si>
-  <si>
-    <t>SARS-CoV-2 (COVID-19)</t>
-  </si>
-  <si>
-    <t>Adenovirus</t>
-  </si>
-  <si>
-    <t>Mpox</t>
-  </si>
-  <si>
-    <t>Chickenpox / varicella</t>
-  </si>
-  <si>
-    <t>Herpes simplex virus</t>
-  </si>
-  <si>
-    <t>HIV</t>
-  </si>
-  <si>
-    <t>If lab confirmed: Most recent HIV viral load (copies/mL)</t>
-  </si>
-  <si>
-    <t>Hepatitis viruses</t>
-  </si>
-  <si>
-    <t>Dengue virus infection</t>
-  </si>
-  <si>
-    <t>NS1 RDT</t>
-  </si>
-  <si>
-    <t>NS1/IgM/IgG combination test (RDT) - NS1 first sample</t>
-  </si>
-  <si>
-    <t>NS1/IgM/IgG combination test (RDT) - IgM first sample</t>
-  </si>
-  <si>
-    <t>NS1/IgM/IgG combination test (RDT) - IgG first sample</t>
-  </si>
-  <si>
-    <t>NS1 ELISA first sample</t>
-  </si>
-  <si>
-    <t>IgM/IgG ELISA first sample date</t>
-  </si>
-  <si>
-    <t>IgM ELISA first sample</t>
-  </si>
-  <si>
-    <t>IgG ELISA first sample</t>
-  </si>
-  <si>
-    <t>NS1 ELISA second sample</t>
-  </si>
-  <si>
-    <t>IgM/IgG ELISA second sample date</t>
-  </si>
-  <si>
-    <t>IgM ELISA second sample</t>
-  </si>
-  <si>
-    <t>IgG ELISA second sample</t>
-  </si>
-  <si>
-    <t>Dengue PCR</t>
-  </si>
-  <si>
-    <t>Clinical pneumonia diagnosed?</t>
-  </si>
-  <si>
-    <t>Was the patient's main diagnosis dengue?</t>
-  </si>
-  <si>
-    <t>If no: What was the main diagnosis?</t>
-  </si>
-  <si>
-    <t>If yes: What was the final classification of dengue?</t>
-  </si>
-  <si>
-    <t>Was there any secondary diagnosis?</t>
-  </si>
-  <si>
-    <t>Specify secondary diagnosis</t>
-  </si>
-  <si>
     <t>1, Yes | 0, No</t>
   </si>
   <si>
-    <t>1, Lab confirmed | 0, Lab negative | 2, Not tested and no clinical diagnosis | 3, Not tested and clinically diagnosed | 99, Unknown</t>
-  </si>
-  <si>
-    <t>1, A-not typed | 2, A/H3N2 | 3, A/H1N1pdm09 | 4, A/H7N9 | 5, A/H5N1 | 6, B | 88, Other</t>
-  </si>
-  <si>
-    <t>1, Lab confirmed | 0, Lab negative | 2, Not tested | 99, Unknown</t>
-  </si>
-  <si>
-    <t>1, Positive | 0, Negative | 99, Unknown</t>
-  </si>
-  <si>
     <t>Variable</t>
   </si>
   <si>
@@ -816,73 +557,55 @@
     <t>New Answer Options</t>
   </si>
   <si>
+    <t>demog_calcage</t>
+  </si>
+  <si>
+    <t>adsym_haemorrhag_site</t>
+  </si>
+  <si>
     <t>demog_gender</t>
   </si>
   <si>
+    <t>test_labtestmethod</t>
+  </si>
+  <si>
     <t>sympt_haemorrhag_site</t>
   </si>
   <si>
-    <t>demog_calcage</t>
-  </si>
-  <si>
-    <t>test_labtestmethod</t>
-  </si>
-  <si>
-    <t>adsym_haemorrhag_site</t>
+    <t>Calculated Age</t>
+  </si>
+  <si>
+    <t>Specify bleeding / haemorrhage site(s)</t>
   </si>
   <si>
     <t>Gender</t>
   </si>
   <si>
-    <t>Specify bleeding / haemorrhage site(s)</t>
-  </si>
-  <si>
-    <t>Calculated Age</t>
-  </si>
-  <si>
     <t>Lab test method</t>
   </si>
   <si>
     <t>Specify bleeding site(s)</t>
   </si>
   <si>
+    <t>datediff([demog_birthdate], [pres_date], "y")</t>
+  </si>
+  <si>
+    <t>1, Skin | 7, Petechiae | 2, Nose | 3, Gums | 4, GI tract | 5, Urinary tract | 6, Vagina | 99, Unknown | 88, Other(s)</t>
+  </si>
+  <si>
     <t>1, Man | 2, Woman | 3, Non-binary | 99, Unknown | 88, Other</t>
   </si>
   <si>
-    <t>1, Skin | 7, Petechiae | 2, Nose | 3, Gums | 4, GI tract | 5, Urinary tract | 6, Vagina | 99, Unknown | 88, Other(s)</t>
-  </si>
-  <si>
-    <t>datediff([demog_birthdate], [pres_date], "y")</t>
-  </si>
-  <si>
     <t>1, PCR | 2, IgG | 3, Culture | 4, IgM | 6, RDT | 5, Antigen detection | 99, Unknown</t>
   </si>
   <si>
+    <t>if([demog_birthknow] = '1',  datediff([demog_birthdate], [dates_admdate], "y"),  if([demog_age_units] = '1', [demog_age], if([demog_age_units] = '2', round([demog_age]/12, 2), if([demog_age_units] = '3', round([demog_age]/365.25, 2), '') ) ))</t>
+  </si>
+  <si>
     <t>1, Male | 2, Female | 3, Non-binary | 99, Unknown | 88, Other</t>
   </si>
   <si>
-    <t>if([demog_birthknow] = '1',  datediff([demog_birthdate], [pres_date], "y"),  if([demog_age_units] = '1', [demog_age], if([demog_age_units] = '2', round([demog_age]/12, 2), if([demog_age_units] = '3', round([demog_age]/365.25, 2), '') ) ))</t>
-  </si>
-  <si>
     <t>1, PCR | 3, Culture | 6, RDT | 7, ELISA | 99, Unknown</t>
-  </si>
-  <si>
-    <t>Old Variable (1.1.2)</t>
-  </si>
-  <si>
-    <t>New Variable (1.1.3)</t>
-  </si>
-  <si>
-    <t>diagn_additional</t>
-  </si>
-  <si>
-    <t>diagn_additional2</t>
-  </si>
-  <si>
-    <t>diagn_additional_list</t>
-  </si>
-  <si>
-    <t>diagn_additional2_list</t>
   </si>
 </sst>
 </file>
@@ -1284,13 +1007,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.28515625" customWidth="1"/>
+    <col min="1" max="1" width="34.28515625" customWidth="1"/>
+    <col min="2" max="2" width="55.140625" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1315,13 +1043,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1329,16 +1057,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E3" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1346,16 +1074,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s">
         <v>83</v>
       </c>
-      <c r="D4" t="s">
-        <v>90</v>
-      </c>
       <c r="E4" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1363,16 +1091,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E5" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1380,16 +1108,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1397,16 +1125,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E7" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1414,13 +1142,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1428,16 +1156,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E9" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1445,16 +1173,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E10" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1462,13 +1190,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D11" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1476,16 +1204,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D12" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1493,16 +1221,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D13" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E13" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1510,16 +1238,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D14" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E14" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1527,16 +1255,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D15" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E15" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1544,16 +1272,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D16" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E16" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1561,16 +1289,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D17" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E17" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1578,16 +1306,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D18" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E18" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1595,13 +1323,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D19" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1609,13 +1337,13 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D20" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1623,16 +1351,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D21" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E21" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1640,16 +1368,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D22" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E22" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1657,16 +1385,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D23" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E23" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1674,16 +1402,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D24" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E24" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1691,16 +1419,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D25" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E25" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1708,16 +1436,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E26" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1725,16 +1453,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D27" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E27" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1742,16 +1470,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D28" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E28" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1759,13 +1487,13 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D29" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1773,16 +1501,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D30" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E30" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1790,16 +1518,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C31" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D31" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E31" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1807,13 +1535,13 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D32" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1821,16 +1549,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C33" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D33" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E33" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1838,16 +1566,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C34" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D34" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E34" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1855,16 +1583,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C35" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D35" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E35" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1872,16 +1600,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D36" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E36" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1889,16 +1617,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C37" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D37" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E37" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1906,16 +1634,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C38" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D38" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E38" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1923,16 +1651,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C39" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D39" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E39" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1940,13 +1668,13 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C40" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D40" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1954,16 +1682,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C41" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D41" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E41" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1971,13 +1699,13 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C42" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D42" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1985,16 +1713,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C43" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D43" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E43" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -2002,16 +1730,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C44" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D44" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E44" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2019,16 +1747,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C45" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D45" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E45" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -2036,16 +1764,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C46" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D46" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E46" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -2053,16 +1781,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C47" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D47" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E47" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -2070,16 +1798,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C48" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D48" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E48" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -2087,16 +1815,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C49" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D49" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E49" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2104,16 +1832,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C50" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D50" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E50" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2121,13 +1849,13 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C51" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D51" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2135,13 +1863,13 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C52" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D52" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2149,16 +1877,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C53" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D53" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E53" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2166,16 +1894,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C54" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D54" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E54" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2183,16 +1911,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C55" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D55" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E55" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -2200,16 +1928,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C56" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D56" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E56" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2217,16 +1945,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C57" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D57" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E57" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2234,16 +1962,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C58" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D58" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E58" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2251,13 +1979,13 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C59" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D59" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2265,13 +1993,13 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C60" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D60" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2279,16 +2007,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C61" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D61" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E61" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2296,16 +2024,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C62" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D62" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E62" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2313,16 +2041,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C63" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D63" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E63" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2330,16 +2058,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C64" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D64" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E64" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2347,16 +2075,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C65" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D65" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E65" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2364,13 +2092,13 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C66" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D66" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2378,16 +2106,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C67" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D67" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E67" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2395,16 +2123,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C68" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D68" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E68" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2412,16 +2140,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C69" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D69" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E69" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2429,98 +2157,13 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C70" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D70" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>74</v>
-      </c>
-      <c r="B71" t="s">
-        <v>82</v>
-      </c>
-      <c r="C71" t="s">
-        <v>87</v>
-      </c>
-      <c r="D71" t="s">
-        <v>154</v>
-      </c>
-      <c r="E71" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>75</v>
-      </c>
-      <c r="B72" t="s">
-        <v>82</v>
-      </c>
-      <c r="C72" t="s">
-        <v>87</v>
-      </c>
-      <c r="D72" t="s">
-        <v>155</v>
-      </c>
-      <c r="E72" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>76</v>
-      </c>
-      <c r="B73" t="s">
-        <v>82</v>
-      </c>
-      <c r="C73" t="s">
-        <v>87</v>
-      </c>
-      <c r="D73" t="s">
-        <v>156</v>
-      </c>
-      <c r="E73" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>77</v>
-      </c>
-      <c r="B74" t="s">
-        <v>82</v>
-      </c>
-      <c r="C74" t="s">
-        <v>87</v>
-      </c>
-      <c r="D74" t="s">
-        <v>157</v>
-      </c>
-      <c r="E74" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>78</v>
-      </c>
-      <c r="B75" t="s">
-        <v>82</v>
-      </c>
-      <c r="C75" t="s">
-        <v>87</v>
-      </c>
-      <c r="D75" t="s">
-        <v>158</v>
-      </c>
-      <c r="E75" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2530,685 +2173,91 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="69.5703125" customWidth="1"/>
+    <col min="1" max="1" width="34" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>214</v>
+        <v>165</v>
       </c>
       <c r="D2" t="s">
-        <v>217</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="D3" t="s">
-        <v>217</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>218</v>
+        <v>168</v>
       </c>
       <c r="E4" t="s">
-        <v>252</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>178</v>
-      </c>
-      <c r="B6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" t="s">
-        <v>220</v>
-      </c>
-      <c r="E6" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>179</v>
-      </c>
-      <c r="B7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>180</v>
-      </c>
-      <c r="B8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>181</v>
-      </c>
-      <c r="B9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" t="s">
-        <v>223</v>
-      </c>
-      <c r="E9" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>182</v>
-      </c>
-      <c r="B10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" t="s">
-        <v>224</v>
-      </c>
-      <c r="E10" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>183</v>
-      </c>
-      <c r="B11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" t="s">
-        <v>225</v>
-      </c>
-      <c r="E11" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>184</v>
-      </c>
-      <c r="B12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" t="s">
-        <v>226</v>
-      </c>
-      <c r="E12" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>185</v>
-      </c>
-      <c r="B13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" t="s">
-        <v>227</v>
-      </c>
-      <c r="E13" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>186</v>
-      </c>
-      <c r="B14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" t="s">
-        <v>228</v>
-      </c>
-      <c r="E14" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>187</v>
-      </c>
-      <c r="B15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" t="s">
-        <v>229</v>
-      </c>
-      <c r="E15" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>188</v>
-      </c>
-      <c r="B16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>189</v>
-      </c>
-      <c r="B17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" t="s">
-        <v>231</v>
-      </c>
-      <c r="E17" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>190</v>
-      </c>
-      <c r="B18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" t="s">
-        <v>232</v>
-      </c>
-      <c r="E18" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>191</v>
-      </c>
-      <c r="B19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" t="s">
-        <v>233</v>
-      </c>
-      <c r="E19" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>192</v>
-      </c>
-      <c r="B20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" t="s">
-        <v>234</v>
-      </c>
-      <c r="E20" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>193</v>
-      </c>
-      <c r="B21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" t="s">
-        <v>235</v>
-      </c>
-      <c r="E21" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>194</v>
-      </c>
-      <c r="B22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" t="s">
-        <v>236</v>
-      </c>
-      <c r="E22" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>195</v>
-      </c>
-      <c r="B23" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" t="s">
-        <v>237</v>
-      </c>
-      <c r="E23" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>196</v>
-      </c>
-      <c r="B24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>197</v>
-      </c>
-      <c r="B25" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" t="s">
-        <v>87</v>
-      </c>
-      <c r="D25" t="s">
-        <v>239</v>
-      </c>
-      <c r="E25" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>198</v>
-      </c>
-      <c r="B26" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" t="s">
-        <v>87</v>
-      </c>
-      <c r="D26" t="s">
-        <v>240</v>
-      </c>
-      <c r="E26" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>199</v>
-      </c>
-      <c r="B27" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" t="s">
-        <v>241</v>
-      </c>
-      <c r="E27" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>200</v>
-      </c>
-      <c r="B28" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>201</v>
-      </c>
-      <c r="B29" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" t="s">
-        <v>87</v>
-      </c>
-      <c r="D29" t="s">
-        <v>243</v>
-      </c>
-      <c r="E29" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>202</v>
-      </c>
-      <c r="B30" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" t="s">
-        <v>87</v>
-      </c>
-      <c r="D30" t="s">
-        <v>244</v>
-      </c>
-      <c r="E30" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>203</v>
-      </c>
-      <c r="B31" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" t="s">
-        <v>87</v>
-      </c>
-      <c r="D31" t="s">
-        <v>245</v>
-      </c>
-      <c r="E31" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>204</v>
-      </c>
-      <c r="B32" t="s">
-        <v>82</v>
-      </c>
-      <c r="C32" t="s">
-        <v>87</v>
-      </c>
-      <c r="D32" t="s">
-        <v>152</v>
-      </c>
-      <c r="E32" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>205</v>
-      </c>
-      <c r="B33" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33" t="s">
-        <v>246</v>
-      </c>
-      <c r="E33" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>206</v>
-      </c>
-      <c r="B34" t="s">
-        <v>82</v>
-      </c>
-      <c r="C34" t="s">
-        <v>216</v>
-      </c>
-      <c r="D34" t="s">
-        <v>247</v>
-      </c>
-      <c r="E34" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>207</v>
-      </c>
-      <c r="B35" t="s">
-        <v>82</v>
-      </c>
-      <c r="C35" t="s">
-        <v>216</v>
-      </c>
-      <c r="D35" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>208</v>
-      </c>
-      <c r="B36" t="s">
-        <v>82</v>
-      </c>
-      <c r="C36" t="s">
-        <v>216</v>
-      </c>
-      <c r="D36" t="s">
-        <v>249</v>
-      </c>
-      <c r="E36" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>209</v>
-      </c>
-      <c r="B37" t="s">
-        <v>82</v>
-      </c>
-      <c r="C37" t="s">
-        <v>216</v>
-      </c>
-      <c r="D37" t="s">
-        <v>156</v>
-      </c>
-      <c r="E37" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>210</v>
-      </c>
-      <c r="B38" t="s">
-        <v>82</v>
-      </c>
-      <c r="C38" t="s">
-        <v>216</v>
-      </c>
-      <c r="D38" t="s">
-        <v>157</v>
-      </c>
-      <c r="E38" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>211</v>
-      </c>
-      <c r="B39" t="s">
-        <v>82</v>
-      </c>
-      <c r="C39" t="s">
-        <v>216</v>
-      </c>
-      <c r="D39" t="s">
-        <v>158</v>
-      </c>
-      <c r="E39" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>212</v>
-      </c>
-      <c r="B40" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" t="s">
-        <v>216</v>
-      </c>
-      <c r="D40" t="s">
-        <v>250</v>
-      </c>
-      <c r="E40" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>213</v>
-      </c>
-      <c r="B41" t="s">
-        <v>82</v>
-      </c>
-      <c r="C41" t="s">
-        <v>216</v>
-      </c>
-      <c r="D41" t="s">
-        <v>251</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -3220,149 +2269,109 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>257</v>
+        <v>171</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>258</v>
+        <v>172</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>259</v>
+        <v>173</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>260</v>
+        <v>174</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>261</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>262</v>
+        <v>176</v>
       </c>
       <c r="B2" t="s">
-        <v>267</v>
+        <v>181</v>
       </c>
       <c r="C2" t="s">
-        <v>267</v>
+        <v>181</v>
       </c>
       <c r="D2" t="s">
-        <v>272</v>
+        <v>186</v>
       </c>
       <c r="E2" t="s">
-        <v>276</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>263</v>
+        <v>177</v>
       </c>
       <c r="B3" t="s">
-        <v>268</v>
+        <v>182</v>
       </c>
       <c r="C3" t="s">
-        <v>271</v>
+        <v>185</v>
       </c>
       <c r="D3" t="s">
-        <v>273</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>264</v>
+        <v>178</v>
       </c>
       <c r="B4" t="s">
-        <v>269</v>
+        <v>183</v>
       </c>
       <c r="C4" t="s">
-        <v>269</v>
+        <v>183</v>
       </c>
       <c r="D4" t="s">
-        <v>274</v>
+        <v>188</v>
       </c>
       <c r="E4" t="s">
-        <v>277</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>265</v>
+        <v>179</v>
       </c>
       <c r="B5" t="s">
-        <v>270</v>
+        <v>184</v>
       </c>
       <c r="C5" t="s">
-        <v>270</v>
+        <v>184</v>
       </c>
       <c r="D5" t="s">
-        <v>275</v>
+        <v>189</v>
       </c>
       <c r="E5" t="s">
-        <v>278</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>266</v>
+        <v>180</v>
       </c>
       <c r="B6" t="s">
-        <v>268</v>
+        <v>182</v>
       </c>
       <c r="C6" t="s">
-        <v>271</v>
+        <v>185</v>
       </c>
       <c r="D6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="69.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>281</v>
-      </c>
-      <c r="B2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B3" t="s">
-        <v>284</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
